--- a/image/encounter.xlsx
+++ b/image/encounter.xlsx
@@ -1480,45 +1480,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.2265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="72.9921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.1875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="88.7421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="187.4921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="89.54296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="184.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/encounter.xlsx
+++ b/image/encounter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="428">
   <si>
     <t>Path</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -426,10 +426,6 @@
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -660,6 +656,12 @@
   </si>
   <si>
     <t>The subjectStatus value can be used to track the patient's status within the encounter. It details whether the patient has arrived or departed, has been triaged or is currently in a waiting status.</t>
+  </si>
+  <si>
+    <t>Current status of the subject  within the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-subject-status</t>
   </si>
   <si>
     <t>Encounter.episodeOfCare</t>
@@ -1480,45 +1482,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.9921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.1875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="72.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="89.54296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="184.875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="88.7421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="187.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2993,13 +2995,13 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3050,7 +3052,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3079,7 +3081,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3108,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>98</v>
@@ -3161,7 +3163,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3190,11 +3192,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3216,10 +3218,10 @@
         <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>98</v>
@@ -3274,7 +3276,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3303,7 +3305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3383,7 +3385,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>50</v>
@@ -3412,7 +3414,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3435,13 +3437,13 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3492,7 +3494,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3521,7 +3523,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3544,13 +3546,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3577,14 +3579,14 @@
         <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>43</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>50</v>
@@ -3619,18 +3621,18 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3656,10 +3658,10 @@
         <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3710,7 +3712,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3739,7 +3741,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3762,13 +3764,13 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3819,7 +3821,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3848,7 +3850,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3877,7 +3879,7 @@
         <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>98</v>
@@ -3930,7 +3932,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3959,11 +3961,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3985,10 +3987,10 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>98</v>
@@ -4043,7 +4045,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4072,7 +4074,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4095,13 +4097,13 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4128,14 +4130,14 @@
         <v>43</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>43</v>
       </c>
@@ -4152,7 +4154,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>50</v>
@@ -4181,7 +4183,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4204,13 +4206,13 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4261,7 +4263,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -4290,7 +4292,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4313,16 +4315,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4348,14 +4350,14 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4372,7 +4374,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4387,21 +4389,21 @@
         <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4424,13 +4426,13 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4457,14 +4459,14 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4496,7 +4498,7 @@
         <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>130</v>
@@ -4505,12 +4507,12 @@
         <v>43</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4533,13 +4535,13 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4566,14 +4568,14 @@
         <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4590,7 +4592,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4608,22 +4610,22 @@
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4642,16 +4644,16 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4701,7 +4703,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4716,21 +4718,21 @@
         <v>43</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4753,13 +4755,13 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4786,13 +4788,13 @@
         <v>43</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>43</v>
@@ -4810,7 +4812,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4839,7 +4841,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4862,13 +4864,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4919,7 +4921,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4934,25 +4936,25 @@
         <v>43</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4971,13 +4973,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5028,7 +5030,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5043,10 +5045,10 @@
         <v>43</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5057,7 +5059,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5083,10 +5085,10 @@
         <v>125</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5137,7 +5139,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5152,21 +5154,21 @@
         <v>129</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5189,13 +5191,13 @@
         <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5246,7 +5248,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5275,7 +5277,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5304,7 +5306,7 @@
         <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>98</v>
@@ -5357,7 +5359,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5386,11 +5388,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5412,10 +5414,10 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>98</v>
@@ -5470,7 +5472,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5499,7 +5501,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5522,16 +5524,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5557,13 +5559,13 @@
         <v>43</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>43</v>
@@ -5581,7 +5583,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5596,21 +5598,21 @@
         <v>43</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5633,13 +5635,13 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5690,7 +5692,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5708,18 +5710,18 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5742,13 +5744,13 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5799,7 +5801,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5814,21 +5816,21 @@
         <v>43</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5851,13 +5853,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5908,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5923,21 +5925,21 @@
         <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5960,16 +5962,16 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6019,7 +6021,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6034,21 +6036,21 @@
         <v>43</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6071,16 +6073,16 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6130,7 +6132,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6145,25 +6147,25 @@
         <v>43</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6182,16 +6184,16 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6220,10 +6222,10 @@
         <v>73</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6241,7 +6243,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6256,25 +6258,25 @@
         <v>43</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6293,16 +6295,16 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6352,7 +6354,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6367,21 +6369,21 @@
         <v>43</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6407,10 +6409,10 @@
         <v>125</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6461,7 +6463,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6479,7 +6481,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6490,7 +6492,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6513,13 +6515,13 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6570,7 +6572,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6599,7 +6601,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6628,7 +6630,7 @@
         <v>96</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>98</v>
@@ -6681,7 +6683,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6710,11 +6712,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6736,10 +6738,10 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>98</v>
@@ -6794,7 +6796,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6823,11 +6825,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6846,16 +6848,16 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6905,7 +6907,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>50</v>
@@ -6920,21 +6922,21 @@
         <v>43</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6957,13 +6959,13 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6993,10 +6995,10 @@
         <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
@@ -7014,7 +7016,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7043,7 +7045,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7066,13 +7068,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7123,7 +7125,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7141,7 +7143,7 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
@@ -7152,7 +7154,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7175,16 +7177,16 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7234,7 +7236,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7252,7 +7254,7 @@
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>43</v>
@@ -7263,7 +7265,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7289,13 +7291,13 @@
         <v>125</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7345,7 +7347,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7363,7 +7365,7 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
@@ -7374,7 +7376,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7397,13 +7399,13 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7454,7 +7456,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7483,7 +7485,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7512,7 +7514,7 @@
         <v>96</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>98</v>
@@ -7565,7 +7567,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7594,11 +7596,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7620,10 +7622,10 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>98</v>
@@ -7678,7 +7680,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7707,7 +7709,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7733,10 +7735,10 @@
         <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7787,7 +7789,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7811,12 +7813,12 @@
         <v>43</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7839,13 +7841,13 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7896,7 +7898,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7914,7 +7916,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
@@ -7925,7 +7927,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7948,13 +7950,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7984,10 +7986,10 @@
         <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
@@ -8005,7 +8007,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8023,18 +8025,18 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8057,13 +8059,13 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8090,13 +8092,13 @@
         <v>43</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>43</v>
@@ -8114,7 +8116,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8138,12 +8140,12 @@
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8166,19 +8168,19 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8203,13 +8205,13 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8227,7 +8229,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8245,18 +8247,18 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8279,13 +8281,13 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8315,10 +8317,10 @@
         <v>73</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
@@ -8336,7 +8338,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8354,18 +8356,18 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8388,13 +8390,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8424,10 +8426,10 @@
         <v>73</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -8445,7 +8447,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8463,18 +8465,18 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8497,13 +8499,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8554,7 +8556,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8572,18 +8574,18 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8606,13 +8608,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8639,13 +8641,13 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
@@ -8663,7 +8665,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8681,18 +8683,18 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8718,13 +8720,13 @@
         <v>125</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8774,7 +8776,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8792,7 +8794,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -8803,7 +8805,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8826,13 +8828,13 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8883,7 +8885,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8912,7 +8914,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8941,7 +8943,7 @@
         <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>98</v>
@@ -8994,7 +8996,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9023,11 +9025,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9049,10 +9051,10 @@
         <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>98</v>
@@ -9107,7 +9109,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9136,7 +9138,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9159,13 +9161,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9216,7 +9218,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>50</v>
@@ -9231,21 +9233,21 @@
         <v>43</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9271,13 +9273,13 @@
         <v>69</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9306,10 +9308,10 @@
         <v>117</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
@@ -9327,7 +9329,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9345,7 +9347,7 @@
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
@@ -9356,7 +9358,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9379,16 +9381,16 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9414,13 +9416,13 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9438,7 +9440,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9467,7 +9469,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9490,13 +9492,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9547,7 +9549,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9565,7 +9567,7 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -9576,7 +9578,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9599,13 +9601,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9656,7 +9658,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9671,21 +9673,21 @@
         <v>43</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9708,16 +9710,16 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9767,7 +9769,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9782,10 +9784,10 @@
         <v>43</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
